--- a/documents/基本設計書(卒業課題).xlsx
+++ b/documents/基本設計書(卒業課題).xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -101,6 +101,15 @@
 　　ページ追加
 ・改版理由
 　ページ不足のため</t>
+  </si>
+  <si>
+    <t>Rev 1.2</t>
+  </si>
+  <si>
+    <t>・改版箇所
+　「画面レイアウト(アカウント画面)」の登録済みのパスワード表示欄を削除
+・改版理由
+　セキュリティの観点から削除</t>
   </si>
   <si>
     <t>IO関連図(アカウント登録)</t>
@@ -182,9 +191,6 @@
   </si>
   <si>
     <t>メールアドレス変更画面</t>
-  </si>
-  <si>
-    <t>ユーザー管理システム</t>
   </si>
   <si>
     <t>メールアドレス変更完了画面</t>
@@ -1396,7 +1402,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="四角形"/>
+        <xdr:cNvPr id="105" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1441,7 +1447,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="ニックネーム"/>
+        <xdr:cNvPr id="106" name="ニックネーム"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1529,7 +1535,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="四角形"/>
+        <xdr:cNvPr id="107" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1575,7 +1581,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="メールアドレス"/>
+        <xdr:cNvPr id="108" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1665,7 +1671,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="パスワード"/>
+        <xdr:cNvPr id="109" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1749,19 +1755,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609804</xdr:colOff>
+      <xdr:colOff>609803</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>83140</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="タロウ"/>
+        <xdr:cNvPr id="110" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3823630" y="3651871"/>
-          <a:ext cx="3009175" cy="579090"/>
+          <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1848,7 +1854,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="111" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1929,99 +1935,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>89830</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76424</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609804</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>199583</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="●●●●●●"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3823630" y="6047964"/>
-          <a:ext cx="3009175" cy="579090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
-            <a:t>●●●●●●</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2035,7 +1948,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="マイカレンダー"/>
+        <xdr:cNvPr id="112" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2128,7 +2041,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="四角形"/>
+        <xdr:cNvPr id="113" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2174,7 +2087,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="アカウント画面"/>
+        <xdr:cNvPr id="114" name="アカウント画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2267,7 +2180,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="ニックネーム変更"/>
+        <xdr:cNvPr id="115" name="ニックネーム変更"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2360,7 +2273,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="メールアドレス変更"/>
+        <xdr:cNvPr id="116" name="メールアドレス変更"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2440,25 +2353,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>852287</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70982</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>76424</xdr:rowOff>
+      <xdr:rowOff>89124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1173617</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>392312</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>199583</xdr:rowOff>
+      <xdr:rowOff>212283</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="パスワード変更"/>
+        <xdr:cNvPr id="117" name="パスワード変更"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7075287" y="6047964"/>
+          <a:off x="3804782" y="6060664"/>
           <a:ext cx="1565931" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2546,7 +2459,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="ログアウト"/>
+        <xdr:cNvPr id="118" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2624,24 +2537,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>578054</xdr:colOff>
+      <xdr:colOff>578053</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>159486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1101529</xdr:colOff>
+      <xdr:colOff>1101528</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>74191</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="カレンダー"/>
+        <xdr:cNvPr id="119" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6801054" y="881481"/>
+          <a:off x="6801053" y="881481"/>
           <a:ext cx="1768076" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2722,17 +2635,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>498075</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>112692</xdr:rowOff>
+      <xdr:rowOff>112693</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="カレンダー画面に戻る"/>
+        <xdr:cNvPr id="120" name="カレンダー画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2476500" y="7556829"/>
-          <a:ext cx="1755376" cy="579089"/>
+          <a:ext cx="1755376" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2819,7 +2732,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="アカウントの削除"/>
+        <xdr:cNvPr id="121" name="アカウントの削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2917,7 +2830,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="四角形"/>
+        <xdr:cNvPr id="123" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2962,7 +2875,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="四角形"/>
+        <xdr:cNvPr id="124" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3008,7 +2921,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="マイカレンダー"/>
+        <xdr:cNvPr id="125" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3101,7 +3014,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="四角形"/>
+        <xdr:cNvPr id="126" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3147,7 +3060,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="アカウント削除確認画面"/>
+        <xdr:cNvPr id="127" name="アカウント削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3240,7 +3153,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="ログアウト"/>
+        <xdr:cNvPr id="128" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3330,7 +3243,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="カレンダー"/>
+        <xdr:cNvPr id="129" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3420,7 +3333,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="キャンセル"/>
+        <xdr:cNvPr id="130" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3513,7 +3426,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="削除"/>
+        <xdr:cNvPr id="131" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3606,7 +3519,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="本当に削除しますか？"/>
+        <xdr:cNvPr id="132" name="本当に削除しますか？"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3694,7 +3607,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="アカウント情報"/>
+        <xdr:cNvPr id="133" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3784,7 +3697,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="四角形"/>
+        <xdr:cNvPr id="134" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3820,22 +3733,22 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>233514</xdr:rowOff>
+      <xdr:rowOff>233513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>83971</xdr:rowOff>
+      <xdr:rowOff>83970</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="マイカレンダー"/>
+        <xdr:cNvPr id="135" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-12701" y="13531684"/>
+          <a:off x="-12701" y="13531683"/>
           <a:ext cx="9982201" cy="781368"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3919,17 +3832,17 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>119297</xdr:rowOff>
+      <xdr:rowOff>119296</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="四角形"/>
+        <xdr:cNvPr id="136" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="792957" y="15129819"/>
-          <a:ext cx="7912894" cy="6741404"/>
+          <a:ext cx="7912893" cy="6741403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3959,7 +3872,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>773907</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>168365</xdr:rowOff>
+      <xdr:rowOff>168364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -3969,13 +3882,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="アカウント削除確認画面"/>
+        <xdr:cNvPr id="137" name="アカウント削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773907" y="15081340"/>
-          <a:ext cx="7950994" cy="743350"/>
+          <a:off x="773907" y="15081339"/>
+          <a:ext cx="7950993" cy="743351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4062,7 +3975,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="削除が完了しました。"/>
+        <xdr:cNvPr id="138" name="削除が完了しました。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4140,7 +4053,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1126137</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>22548</xdr:rowOff>
+      <xdr:rowOff>22547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -4150,13 +4063,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="139" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3615337" y="19494823"/>
-          <a:ext cx="1755376" cy="579089"/>
+          <a:off x="3615337" y="19494822"/>
+          <a:ext cx="1755376" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4248,7 +4161,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="四角形"/>
+        <xdr:cNvPr id="141" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4293,7 +4206,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="新しいニックネーム"/>
+        <xdr:cNvPr id="142" name="新しいニックネーム"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4381,7 +4294,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="四角形"/>
+        <xdr:cNvPr id="143" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4427,7 +4340,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="パスワード"/>
+        <xdr:cNvPr id="144" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4517,7 +4430,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="タロウ"/>
+        <xdr:cNvPr id="145" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4610,7 +4523,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="●●●●●●"/>
+        <xdr:cNvPr id="146" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4703,7 +4616,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="マイカレンダー"/>
+        <xdr:cNvPr id="147" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4836,7 +4749,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="四角形"/>
+        <xdr:cNvPr id="148" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4882,7 +4795,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="ニックネーム変更画面"/>
+        <xdr:cNvPr id="149" name="ニックネーム変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4975,7 +4888,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="ログアウト"/>
+        <xdr:cNvPr id="150" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5053,24 +4966,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>928228</xdr:colOff>
+      <xdr:colOff>928227</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>159486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1038872</xdr:colOff>
+      <xdr:colOff>1038871</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>74191</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="カレンダー"/>
+        <xdr:cNvPr id="151" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7151228" y="881481"/>
+          <a:off x="7151227" y="881481"/>
           <a:ext cx="1355245" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5155,13 +5068,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="キャンセル"/>
+        <xdr:cNvPr id="152" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476499" y="7232066"/>
-          <a:ext cx="1755377" cy="579089"/>
+          <a:off x="2476500" y="7232066"/>
+          <a:ext cx="1755376" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5248,7 +5161,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="保存"/>
+        <xdr:cNvPr id="153" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5341,7 +5254,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="四角形"/>
+        <xdr:cNvPr id="154" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5387,7 +5300,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="マイカレンダー"/>
+        <xdr:cNvPr id="155" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5516,11 +5429,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1175593</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>121202</xdr:rowOff>
+      <xdr:rowOff>121201</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="四角形"/>
+        <xdr:cNvPr id="156" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5556,7 +5469,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>711251</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>170270</xdr:rowOff>
+      <xdr:rowOff>170269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -5566,13 +5479,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="ニックネーム変更完了画面"/>
+        <xdr:cNvPr id="157" name="ニックネーム変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="711251" y="15767140"/>
-          <a:ext cx="7950993" cy="743350"/>
+          <a:off x="711251" y="15767139"/>
+          <a:ext cx="7950993" cy="743351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5649,7 +5562,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>614861</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>196944</xdr:rowOff>
+      <xdr:rowOff>196945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -5659,13 +5572,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="ログアウト"/>
+        <xdr:cNvPr id="158" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8082461" y="14419674"/>
-          <a:ext cx="1768076" cy="376986"/>
+          <a:off x="8082461" y="14419675"/>
+          <a:ext cx="1768076" cy="376985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5739,7 +5652,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>515397</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>196944</xdr:rowOff>
+      <xdr:rowOff>196945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -5749,13 +5662,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="カレンダー"/>
+        <xdr:cNvPr id="159" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6738397" y="14419674"/>
-          <a:ext cx="1768076" cy="376986"/>
+          <a:off x="6738397" y="14419675"/>
+          <a:ext cx="1768076" cy="376985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5835,17 +5748,17 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>540967</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>91640</xdr:rowOff>
+      <xdr:rowOff>91641</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="変更が完了しました"/>
+        <xdr:cNvPr id="160" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2470150" y="17766882"/>
-          <a:ext cx="4293818" cy="1341104"/>
+          <a:ext cx="4293818" cy="1341105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5917,7 +5830,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>692954</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>195901</xdr:rowOff>
+      <xdr:rowOff>195902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -5927,13 +5840,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="カレンダー画面に戻る"/>
+        <xdr:cNvPr id="161" name="カレンダー画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3182154" y="21035966"/>
-          <a:ext cx="2706515" cy="579090"/>
+          <a:off x="3182154" y="21035967"/>
+          <a:ext cx="2706515" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6020,7 +5933,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="アカウント情報"/>
+        <xdr:cNvPr id="162" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6098,25 +6011,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566978</xdr:colOff>
+      <xdr:colOff>566977</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>196944</xdr:rowOff>
+      <xdr:rowOff>196945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>677622</xdr:colOff>
+      <xdr:colOff>677621</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>111649</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="アカウント情報"/>
+        <xdr:cNvPr id="163" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5545377" y="14419674"/>
-          <a:ext cx="1355246" cy="376986"/>
+          <a:off x="5545377" y="14419675"/>
+          <a:ext cx="1355245" cy="376985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6205,7 +6118,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="四角形"/>
+        <xdr:cNvPr id="165" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6250,7 +6163,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="新しいメールアドレス"/>
+        <xdr:cNvPr id="166" name="新しいメールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6338,7 +6251,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="四角形"/>
+        <xdr:cNvPr id="167" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6384,7 +6297,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="パスワード"/>
+        <xdr:cNvPr id="168" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6474,7 +6387,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="タロウ"/>
+        <xdr:cNvPr id="169" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6545,7 +6458,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>タロウ</a:t>
+            <a:t>●●●●●●</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6567,7 +6480,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="●●●●●●"/>
+        <xdr:cNvPr id="170" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6660,7 +6573,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="マイカレンダー"/>
+        <xdr:cNvPr id="171" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6793,7 +6706,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="四角形"/>
+        <xdr:cNvPr id="172" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6839,7 +6752,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="メールアドレス変更画面"/>
+        <xdr:cNvPr id="173" name="メールアドレス変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6932,7 +6845,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="ログアウト"/>
+        <xdr:cNvPr id="174" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7022,7 +6935,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="カレンダー"/>
+        <xdr:cNvPr id="175" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7112,7 +7025,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="キャンセル"/>
+        <xdr:cNvPr id="176" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7205,7 +7118,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="保存"/>
+        <xdr:cNvPr id="177" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7298,7 +7211,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="四角形"/>
+        <xdr:cNvPr id="178" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7344,7 +7257,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="マイカレンダー"/>
+        <xdr:cNvPr id="179" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7477,7 +7390,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="四角形"/>
+        <xdr:cNvPr id="180" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7523,7 +7436,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="メールアドレス変更完了画面"/>
+        <xdr:cNvPr id="181" name="メールアドレス変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7603,96 +7516,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>614861</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>196945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1138336</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>111649</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="ログアウト"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8082461" y="14419675"/>
-          <a:ext cx="1768076" cy="376985"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1225550</xdr:colOff>
       <xdr:row>77</xdr:row>
@@ -7706,7 +7529,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="変更が完了しました"/>
+        <xdr:cNvPr id="182" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7794,7 +7617,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="183" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7887,7 +7710,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="アカウント情報"/>
+        <xdr:cNvPr id="184" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7982,7 +7805,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="四角形"/>
+        <xdr:cNvPr id="186" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8027,7 +7850,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="現在のパスワード"/>
+        <xdr:cNvPr id="187" name="現在のパスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8115,7 +7938,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="四角形"/>
+        <xdr:cNvPr id="188" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8151,7 +7974,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>566978</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>203530</xdr:rowOff>
+      <xdr:rowOff>203531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -8161,13 +7984,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="新しいパスワード"/>
+        <xdr:cNvPr id="189" name="新しいパスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3056177" y="4807280"/>
-          <a:ext cx="1355246" cy="579090"/>
+          <a:off x="3056177" y="4807281"/>
+          <a:ext cx="1355246" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8251,7 +8074,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="タロウ"/>
+        <xdr:cNvPr id="190" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8322,7 +8145,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>タロウ</a:t>
+            <a:t>●●●●●●</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8344,7 +8167,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="●●●●●●"/>
+        <xdr:cNvPr id="191" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8437,7 +8260,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="マイカレンダー"/>
+        <xdr:cNvPr id="192" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8570,7 +8393,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="四角形"/>
+        <xdr:cNvPr id="193" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8616,7 +8439,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="パスワード変更画面"/>
+        <xdr:cNvPr id="194" name="パスワード変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8709,7 +8532,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="ログアウト"/>
+        <xdr:cNvPr id="195" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8799,7 +8622,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="カレンダー"/>
+        <xdr:cNvPr id="196" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8889,7 +8712,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="キャンセル"/>
+        <xdr:cNvPr id="197" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8982,7 +8805,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="保存"/>
+        <xdr:cNvPr id="198" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9075,7 +8898,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="四角形"/>
+        <xdr:cNvPr id="199" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9121,7 +8944,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="マイカレンダー"/>
+        <xdr:cNvPr id="200" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9254,7 +9077,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="四角形"/>
+        <xdr:cNvPr id="201" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9300,7 +9123,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="パスワード変更完了画面"/>
+        <xdr:cNvPr id="202" name="パスワード変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9380,96 +9203,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>614861</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>196945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1138336</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>111649</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="ログアウト"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8082461" y="14419675"/>
-          <a:ext cx="1768076" cy="376985"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1225550</xdr:colOff>
       <xdr:row>77</xdr:row>
@@ -9483,7 +9216,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="変更が完了しました"/>
+        <xdr:cNvPr id="203" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9571,7 +9304,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="204" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9664,7 +9397,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="アカウント情報"/>
+        <xdr:cNvPr id="205" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9742,7 +9475,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>509217</xdr:colOff>
+      <xdr:colOff>509216</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>211785</xdr:rowOff>
     </xdr:from>
@@ -9754,13 +9487,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="表示"/>
+        <xdr:cNvPr id="206" name="表示"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6732217" y="5499430"/>
-          <a:ext cx="685174" cy="579089"/>
+          <a:off x="6732216" y="5499430"/>
+          <a:ext cx="685175" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9852,7 +9585,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="四角形"/>
+        <xdr:cNvPr id="208" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9897,7 +9630,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="四角形"/>
+        <xdr:cNvPr id="209" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9943,7 +9676,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="マイカレンダー"/>
+        <xdr:cNvPr id="210" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10076,7 +9809,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="ログアウト"/>
+        <xdr:cNvPr id="211" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10166,7 +9899,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="アカウント情報"/>
+        <xdr:cNvPr id="212" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10256,7 +9989,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="217" name="◀︎◀︎ 2022年 ▶︎▶︎…"/>
+        <xdr:cNvPr id="213" name="◀︎◀︎ 2022年 ▶︎▶︎…"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10437,7 +10170,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="◀︎ 12月 ▶︎…"/>
+        <xdr:cNvPr id="214" name="◀︎ 12月 ▶︎…"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10578,7 +10311,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="219" name="確認"/>
+        <xdr:cNvPr id="215" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10671,7 +10404,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="削除"/>
+        <xdr:cNvPr id="216" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10754,22 +10487,22 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>481962</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>130197</xdr:rowOff>
+      <xdr:rowOff>130196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>53902</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11882</xdr:rowOff>
+      <xdr:rowOff>11881</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="221" name="確認"/>
+        <xdr:cNvPr id="217" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8101962" y="7889897"/>
+          <a:off x="8101962" y="7889896"/>
           <a:ext cx="841941" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10847,22 +10580,22 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>188584</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>130197</xdr:rowOff>
+      <xdr:rowOff>130196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>395524</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11882</xdr:rowOff>
+      <xdr:rowOff>11881</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="削除"/>
+        <xdr:cNvPr id="218" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9078584" y="7889897"/>
+          <a:off x="9078584" y="7889896"/>
           <a:ext cx="841941" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10946,17 +10679,17 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>53902</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>53944</xdr:rowOff>
+      <xdr:rowOff>53945</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="確認"/>
+        <xdr:cNvPr id="219" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8101962" y="8427260"/>
-          <a:ext cx="841941" cy="376985"/>
+          <a:ext cx="841941" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11039,17 +10772,17 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>395524</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>53944</xdr:rowOff>
+      <xdr:rowOff>53945</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="削除"/>
+        <xdr:cNvPr id="220" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9078584" y="8427260"/>
-          <a:ext cx="841941" cy="376985"/>
+          <a:ext cx="841941" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11136,7 +10869,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="確認"/>
+        <xdr:cNvPr id="221" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11229,7 +10962,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="226" name="削除"/>
+        <xdr:cNvPr id="222" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11312,22 +11045,22 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>481962</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>21052</xdr:rowOff>
+      <xdr:rowOff>21053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>53902</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>67837</xdr:rowOff>
+      <xdr:rowOff>67838</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="確認"/>
+        <xdr:cNvPr id="223" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8101962" y="9431752"/>
+          <a:off x="8101962" y="9431753"/>
           <a:ext cx="841941" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11405,22 +11138,22 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>188584</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>21052</xdr:rowOff>
+      <xdr:rowOff>21053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>395524</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>67837</xdr:rowOff>
+      <xdr:rowOff>67838</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="削除"/>
+        <xdr:cNvPr id="224" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9078584" y="9431752"/>
+          <a:off x="9078584" y="9431753"/>
           <a:ext cx="841941" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11508,7 +11241,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="予定の追加"/>
+        <xdr:cNvPr id="225" name="予定の追加"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11606,7 +11339,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="四角形"/>
+        <xdr:cNvPr id="227" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11652,7 +11385,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="マイカレンダー"/>
+        <xdr:cNvPr id="228" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11785,7 +11518,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="ログアウト"/>
+        <xdr:cNvPr id="229" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11875,7 +11608,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="アカウント情報"/>
+        <xdr:cNvPr id="230" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11965,7 +11698,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="追加"/>
+        <xdr:cNvPr id="231" name="追加"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12058,7 +11791,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="236" name="キャンセル"/>
+        <xdr:cNvPr id="232" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12151,7 +11884,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="237" name="カレンダー"/>
+        <xdr:cNvPr id="233" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12241,7 +11974,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="終日"/>
+        <xdr:cNvPr id="234" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12341,7 +12074,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="予定が未入力です。"/>
+        <xdr:cNvPr id="235" name="予定が未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12444,7 +12177,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="241" name="四角形"/>
+        <xdr:cNvPr id="237" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12490,7 +12223,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="マイカレンダー"/>
+        <xdr:cNvPr id="238" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12623,7 +12356,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="ログアウト"/>
+        <xdr:cNvPr id="239" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12713,7 +12446,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="アカウント情報"/>
+        <xdr:cNvPr id="240" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12803,7 +12536,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="編集"/>
+        <xdr:cNvPr id="241" name="編集"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12896,7 +12629,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="246" name="削除"/>
+        <xdr:cNvPr id="242" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12989,7 +12722,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="247" name="カレンダー"/>
+        <xdr:cNvPr id="243" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13079,7 +12812,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="終日"/>
+        <xdr:cNvPr id="244" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13167,7 +12900,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>145695</xdr:colOff>
+      <xdr:colOff>145694</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57962</xdr:rowOff>
     </xdr:from>
@@ -13179,13 +12912,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="249" name="カレンダーに戻る"/>
+        <xdr:cNvPr id="245" name="カレンダーに戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3955695" y="2534462"/>
-          <a:ext cx="2169632" cy="376986"/>
+          <a:off x="3955694" y="2534462"/>
+          <a:ext cx="2169633" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13277,7 +13010,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="251" name="四角形"/>
+        <xdr:cNvPr id="247" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13323,7 +13056,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="マイカレンダー"/>
+        <xdr:cNvPr id="248" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13456,7 +13189,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="ログアウト"/>
+        <xdr:cNvPr id="249" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13546,7 +13279,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="アカウント情報"/>
+        <xdr:cNvPr id="250" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13630,13 +13363,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>482599</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104747</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="255" name="保存"/>
+        <xdr:cNvPr id="251" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13729,13 +13462,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="256" name="キャンセル"/>
+        <xdr:cNvPr id="252" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1153005" y="2534462"/>
-          <a:ext cx="1355246" cy="376986"/>
+          <a:ext cx="1355245" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13822,7 +13555,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="257" name="カレンダー"/>
+        <xdr:cNvPr id="253" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13912,7 +13645,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="258" name="終日"/>
+        <xdr:cNvPr id="254" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14012,7 +13745,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="予定が未入力です。"/>
+        <xdr:cNvPr id="255" name="予定が未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14115,7 +13848,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="四角形"/>
+        <xdr:cNvPr id="257" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14160,7 +13893,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="四角形"/>
+        <xdr:cNvPr id="258" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14206,7 +13939,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="マイカレンダー"/>
+        <xdr:cNvPr id="259" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14299,7 +14032,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="四角形"/>
+        <xdr:cNvPr id="260" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14345,7 +14078,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="予定削除確認画面"/>
+        <xdr:cNvPr id="261" name="予定削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14438,7 +14171,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="ログアウト"/>
+        <xdr:cNvPr id="262" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14528,7 +14261,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="カレンダー"/>
+        <xdr:cNvPr id="263" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14618,7 +14351,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="268" name="キャンセル"/>
+        <xdr:cNvPr id="264" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14711,7 +14444,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="269" name="削除"/>
+        <xdr:cNvPr id="265" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14804,7 +14537,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="本当に削除しますか？"/>
+        <xdr:cNvPr id="266" name="本当に削除しますか？"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14892,7 +14625,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="アカウント情報"/>
+        <xdr:cNvPr id="267" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14982,7 +14715,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="四角形"/>
+        <xdr:cNvPr id="268" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15028,7 +14761,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="273" name="マイカレンダー"/>
+        <xdr:cNvPr id="269" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15121,7 +14854,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="四角形"/>
+        <xdr:cNvPr id="270" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15167,7 +14900,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="予定削除確認画面"/>
+        <xdr:cNvPr id="271" name="予定削除完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15238,7 +14971,7 @@
               <a:cs typeface="+mj-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
             </a:rPr>
-            <a:t>予定削除確認画面</a:t>
+            <a:t>予定削除完了画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15260,7 +14993,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="削除が完了しました。"/>
+        <xdr:cNvPr id="272" name="削除が完了しました。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15348,7 +15081,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="カレンダー画面に戻る"/>
+        <xdr:cNvPr id="273" name="カレンダー画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15431,7 +15164,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>677518</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>195039</xdr:rowOff>
+      <xdr:rowOff>195040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -15441,13 +15174,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="ログアウト"/>
+        <xdr:cNvPr id="274" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8145118" y="13733874"/>
-          <a:ext cx="1768076" cy="376986"/>
+          <a:off x="8145118" y="13733875"/>
+          <a:ext cx="1768076" cy="376985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15521,7 +15254,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>578053</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>195039</xdr:rowOff>
+      <xdr:rowOff>195040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -15531,13 +15264,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="カレンダー"/>
+        <xdr:cNvPr id="275" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6801053" y="13733874"/>
-          <a:ext cx="1768076" cy="376986"/>
+          <a:off x="6801053" y="13733875"/>
+          <a:ext cx="1768076" cy="376985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15611,7 +15344,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>878518</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>195039</xdr:rowOff>
+      <xdr:rowOff>195040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -15621,13 +15354,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="280" name="アカウント情報"/>
+        <xdr:cNvPr id="276" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5856918" y="13733874"/>
-          <a:ext cx="1355245" cy="376986"/>
+          <a:off x="5856918" y="13733875"/>
+          <a:ext cx="1355245" cy="376985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17310,7 +17043,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>78404</xdr:rowOff>
     </xdr:to>
@@ -18803,8 +18536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2732777" y="3294011"/>
-          <a:ext cx="1279199" cy="358874"/>
+          <a:off x="2732776" y="3294011"/>
+          <a:ext cx="1279200" cy="358874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18930,7 +18663,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>192133</xdr:rowOff>
     </xdr:to>
@@ -18941,8 +18674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2732777" y="4437011"/>
-          <a:ext cx="1020073" cy="358873"/>
+          <a:off x="2732776" y="4437011"/>
+          <a:ext cx="1020074" cy="358873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19393,7 +19126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12699</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>23673</xdr:rowOff>
     </xdr:to>
@@ -19488,7 +19221,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>513623</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>136665</xdr:rowOff>
+      <xdr:rowOff>136664</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19498,7 +19231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2377085" y="5529116"/>
-          <a:ext cx="4359539" cy="579090"/>
+          <a:ext cx="4359539" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19724,7 +19457,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>944569</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>149390</xdr:rowOff>
+      <xdr:rowOff>149389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -19739,8 +19472,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189169" y="3157385"/>
-          <a:ext cx="5578462" cy="1341104"/>
+          <a:off x="2189169" y="3157384"/>
+          <a:ext cx="5578462" cy="1341105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20225,7 +19958,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>993489</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>110556</xdr:rowOff>
+      <xdr:rowOff>110557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -20240,8 +19973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238089" y="6082096"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="2238089" y="6082097"/>
+          <a:ext cx="1880689" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20408,7 +20141,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>984613</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>103769</xdr:rowOff>
+      <xdr:rowOff>103768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -20423,8 +20156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4718413" y="3567694"/>
-          <a:ext cx="3009174" cy="579089"/>
+          <a:off x="4718413" y="3567693"/>
+          <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20740,7 +20473,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>711347</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>118718</xdr:rowOff>
+      <xdr:rowOff>118717</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -20750,7 +20483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5053660" y="20379694"/>
-          <a:ext cx="1880688" cy="579090"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20833,7 +20566,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>711347</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>118718</xdr:rowOff>
+      <xdr:rowOff>118717</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -20843,7 +20576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2564460" y="20379694"/>
-          <a:ext cx="1880688" cy="579090"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21054,23 +20787,23 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1058276</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>57466</xdr:rowOff>
+      <xdr:rowOff>57467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>30990</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>180624</xdr:rowOff>
+      <xdr:rowOff>180626</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="ログイン画面"/>
+        <xdr:cNvPr id="82" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3547476" y="32118616"/>
-          <a:ext cx="2706515" cy="579089"/>
+          <a:off x="3547476" y="32118617"/>
+          <a:ext cx="2706515" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21135,100 +20868,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>ログイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>136792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>31985</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="フッター"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="-6350" y="36073347"/>
-          <a:ext cx="9982201" cy="579089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
-            <a:t>フッター</a:t>
+            <a:t>ログイン画面に戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21250,7 +20890,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="マイカレンダー"/>
+        <xdr:cNvPr id="83" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21343,7 +20983,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="四角形"/>
+        <xdr:cNvPr id="84" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21389,7 +21029,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="アカウント登録"/>
+        <xdr:cNvPr id="85" name="アカウント登録"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21482,7 +21122,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="表示"/>
+        <xdr:cNvPr id="86" name="表示"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21565,7 +21205,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>984613</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>87330</xdr:rowOff>
+      <xdr:rowOff>87329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -21575,13 +21215,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正しい形式でご入力をお願いします。"/>
+        <xdr:cNvPr id="87" name="正しい形式でご入力をお願いします。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4718413" y="5147010"/>
-          <a:ext cx="3433141" cy="403824"/>
+          <a:off x="4718413" y="5147009"/>
+          <a:ext cx="3433141" cy="403825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21663,7 +21303,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>984613</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>226390</xdr:rowOff>
+      <xdr:rowOff>226389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -21673,13 +21313,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="半角英数字でご入力をお願いします。"/>
+        <xdr:cNvPr id="88" name="半角英数字でご入力をお願いします。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4718413" y="6653860"/>
-          <a:ext cx="3433141" cy="403824"/>
+          <a:off x="4718413" y="6653859"/>
+          <a:ext cx="3433141" cy="403825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21767,17 +21407,17 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>683953</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>153636</xdr:rowOff>
+      <xdr:rowOff>153635</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="パスワードが未入力です。"/>
+        <xdr:cNvPr id="89" name="パスワードが未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4718413" y="7089142"/>
-          <a:ext cx="3433141" cy="403825"/>
+          <a:ext cx="3433141" cy="403824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21869,7 +21509,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="メールアドレスが未入力です。"/>
+        <xdr:cNvPr id="90" name="メールアドレスが未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21967,7 +21607,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="ニックネームが未入力です。"/>
+        <xdr:cNvPr id="91" name="ニックネームが未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22065,7 +21705,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="マイカレンダー"/>
+        <xdr:cNvPr id="92" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22148,22 +21788,22 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>345993</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>6674</xdr:rowOff>
+      <xdr:rowOff>6675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>982081</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>129833</xdr:rowOff>
+      <xdr:rowOff>129834</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="ニックネーム"/>
+        <xdr:cNvPr id="93" name="ニックネーム"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2835193" y="16059474"/>
+          <a:off x="2835193" y="16059475"/>
           <a:ext cx="1880689" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22246,7 +21886,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="メールアドレス"/>
+        <xdr:cNvPr id="94" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22326,7 +21966,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>345993</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>32097</xdr:rowOff>
+      <xdr:rowOff>32098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -22336,13 +21976,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="パスワード"/>
+        <xdr:cNvPr id="95" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2835193" y="18592512"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="2835193" y="18592513"/>
+          <a:ext cx="1880689" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22416,22 +22056,22 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>337117</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>25309</xdr:rowOff>
+      <xdr:rowOff>25310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>857090</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>148467</xdr:rowOff>
+      <xdr:rowOff>148468</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="タロウ"/>
+        <xdr:cNvPr id="96" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5315517" y="16078109"/>
+          <a:off x="5315517" y="16078110"/>
           <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22506,7 +22146,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>337117</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>129008</xdr:rowOff>
+      <xdr:rowOff>129009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -22516,13 +22156,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="97" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5315517" y="17321633"/>
-          <a:ext cx="3009174" cy="579090"/>
+          <a:off x="5315517" y="17321634"/>
+          <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22597,7 +22237,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>355407</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>4742</xdr:rowOff>
+      <xdr:rowOff>4743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -22607,13 +22247,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="●●●●●●"/>
+        <xdr:cNvPr id="98" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5333807" y="18565157"/>
-          <a:ext cx="3009175" cy="579090"/>
+          <a:off x="5333807" y="18565158"/>
+          <a:ext cx="3009175" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22697,7 +22337,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="四角形"/>
+        <xdr:cNvPr id="99" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22743,7 +22383,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="アカウント登録確認"/>
+        <xdr:cNvPr id="100" name="アカウント登録確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22836,7 +22476,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="マイカレンダー"/>
+        <xdr:cNvPr id="101" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22919,22 +22559,22 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1109914</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>183889</xdr:rowOff>
+      <xdr:rowOff>183888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>310606</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>86342</xdr:rowOff>
+      <xdr:rowOff>86341</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="四角形"/>
+        <xdr:cNvPr id="102" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1109914" y="26773879"/>
+          <a:off x="1109914" y="26773878"/>
           <a:ext cx="7912893" cy="6741404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22965,22 +22605,22 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1090864</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>135410</xdr:rowOff>
+      <xdr:rowOff>135409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>329656</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>194864</xdr:rowOff>
+      <xdr:rowOff>194863</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="アカウント登録完了"/>
+        <xdr:cNvPr id="103" name="アカウント登録完了"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1090864" y="26725400"/>
+          <a:off x="1090864" y="26725399"/>
           <a:ext cx="7950993" cy="743350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24154,7 +23794,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -24165,12 +23805,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -24181,12 +23821,12 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -24197,12 +23837,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -24213,12 +23853,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -24229,12 +23869,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -24245,12 +23885,12 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -24261,12 +23901,12 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -24277,12 +23917,12 @@
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -24293,12 +23933,12 @@
         <v>5</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -24309,12 +23949,12 @@
         <v>5</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -24325,12 +23965,12 @@
         <v>5</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -24341,12 +23981,12 @@
         <v>5</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -24357,12 +23997,12 @@
         <v>5</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -24373,12 +24013,12 @@
         <v>5</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -24389,39 +24029,39 @@
         <v>5</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="4"/>
       <c r="C41" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="4"/>
       <c r="C42" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="4"/>
       <c r="C43" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -24432,30 +24072,30 @@
         <v>5</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="4"/>
       <c r="C46" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="4"/>
       <c r="C47" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -24466,30 +24106,30 @@
         <v>5</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="4"/>
       <c r="C50" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="4"/>
       <c r="C51" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -24500,30 +24140,30 @@
         <v>5</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="4"/>
       <c r="C54" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="4"/>
       <c r="C55" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -24534,7 +24174,7 @@
         <v>5</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -24592,7 +24232,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -24608,7 +24248,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -24622,7 +24262,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -25086,7 +24726,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -25102,7 +24742,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -25116,7 +24756,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -25636,7 +25276,7 @@
     </row>
     <row r="55" ht="18.95" customHeight="1">
       <c r="A55" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -25652,7 +25292,7 @@
       </c>
       <c r="B56" s="28"/>
       <c r="C56" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
@@ -25666,7 +25306,7 @@
       </c>
       <c r="B57" s="28"/>
       <c r="C57" t="s" s="29">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
@@ -26186,7 +25826,7 @@
     </row>
     <row r="109" ht="18.95" customHeight="1">
       <c r="A109" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -26202,7 +25842,7 @@
       </c>
       <c r="B110" s="28"/>
       <c r="C110" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
@@ -26216,7 +25856,7 @@
       </c>
       <c r="B111" s="28"/>
       <c r="C111" t="s" s="29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
@@ -27124,7 +26764,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -27140,7 +26780,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -27154,7 +26794,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -28978,7 +28618,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -28994,7 +28634,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -29008,7 +28648,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -29548,7 +29188,7 @@
     </row>
     <row r="57" ht="18.95" customHeight="1">
       <c r="A57" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -29564,7 +29204,7 @@
       </c>
       <c r="B58" s="28"/>
       <c r="C58" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
@@ -29578,7 +29218,7 @@
       </c>
       <c r="B59" s="28"/>
       <c r="C59" t="s" s="29">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
@@ -30849,7 +30489,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -30865,7 +30505,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -30879,7 +30519,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -31449,7 +31089,7 @@
     </row>
     <row r="60" ht="18.95" customHeight="1">
       <c r="A60" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -31465,7 +31105,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="C61" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -31479,7 +31119,7 @@
       </c>
       <c r="B62" s="28"/>
       <c r="C62" t="s" s="29">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -32720,7 +32360,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -32736,7 +32376,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -32750,7 +32390,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -33320,7 +32960,7 @@
     </row>
     <row r="60" ht="18.95" customHeight="1">
       <c r="A60" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -33336,7 +32976,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="C61" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -33346,11 +32986,11 @@
     </row>
     <row r="62" ht="18.95" customHeight="1">
       <c r="A62" t="s" s="29">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" t="s" s="29">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -34591,7 +34231,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -34607,7 +34247,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -34621,7 +34261,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -35191,7 +34831,7 @@
     </row>
     <row r="60" ht="18.95" customHeight="1">
       <c r="A60" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -35207,7 +34847,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="C61" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -35217,11 +34857,11 @@
     </row>
     <row r="62" ht="18.95" customHeight="1">
       <c r="A62" t="s" s="29">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" t="s" s="29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -36464,7 +36104,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -36501,7 +36141,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -36533,7 +36173,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -42249,31 +41889,31 @@
   <sheetData>
     <row r="1" ht="27.95" customHeight="1">
       <c r="A1" t="s" s="29">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" t="s" s="29">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" t="s" s="29">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" t="s" s="29">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" t="s" s="29">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="28"/>
       <c r="K1" t="s" s="29">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" t="s" s="29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N1" s="28"/>
     </row>
@@ -42503,11 +42143,11 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="55">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="56">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -42521,11 +42161,11 @@
     </row>
     <row r="3" ht="38.95" customHeight="1">
       <c r="A3" t="s" s="55">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="56">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -42539,11 +42179,11 @@
     </row>
     <row r="4" ht="38.95" customHeight="1">
       <c r="A4" t="s" s="55">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" t="s" s="56">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -42557,11 +42197,11 @@
     </row>
     <row r="5" ht="38.95" customHeight="1">
       <c r="A5" t="s" s="55">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" t="s" s="56">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -42575,11 +42215,11 @@
     </row>
     <row r="6" ht="38.95" customHeight="1">
       <c r="A6" t="s" s="55">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" t="s" s="56">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -42615,7 +42255,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -42862,14 +42502,30 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
+    <row r="24" ht="88.45" customHeight="1">
+      <c r="A24" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="B24" s="17">
+        <v>44894</v>
+      </c>
+      <c r="C24" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A7:B9"/>
     <mergeCell ref="C7:F9"/>
     <mergeCell ref="B12:F16"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -42920,7 +42576,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -42957,7 +42613,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -42989,7 +42645,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -43402,7 +43058,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" t="s" s="58">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" s="59"/>
     </row>
@@ -48714,7 +48370,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s" s="62">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="61">
@@ -48727,7 +48383,7 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="63">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -48736,7 +48392,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" t="s" s="63">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -48745,7 +48401,7 @@
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" t="s" s="65">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -48775,7 +48431,7 @@
     </row>
     <row r="5" ht="80" customHeight="1">
       <c r="A5" t="s" s="65">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -48862,7 +48518,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -48899,7 +48555,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -48931,7 +48587,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -49344,7 +49000,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" t="s" s="58">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" s="59"/>
     </row>
@@ -54656,7 +54312,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s" s="62">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="61">
@@ -54669,7 +54325,7 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="63">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -54678,7 +54334,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" t="s" s="63">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -54687,7 +54343,7 @@
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" t="s" s="65">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -54717,7 +54373,7 @@
     </row>
     <row r="5" ht="80" customHeight="1">
       <c r="A5" t="s" s="65">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -54804,7 +54460,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -54841,7 +54497,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -54873,7 +54529,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -55286,7 +54942,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" t="s" s="58">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" s="59"/>
     </row>
@@ -60598,7 +60254,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s" s="62">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="61">
@@ -60611,7 +60267,7 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="63">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -60620,7 +60276,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" t="s" s="63">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -60629,7 +60285,7 @@
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" t="s" s="65">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -60659,7 +60315,7 @@
     </row>
     <row r="5" ht="80" customHeight="1">
       <c r="A5" t="s" s="65">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -60744,7 +60400,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -60994,7 +60650,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -61010,7 +60666,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -61024,7 +60680,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -61564,7 +61220,7 @@
     </row>
     <row r="57" ht="18.95" customHeight="1">
       <c r="A57" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -61580,7 +61236,7 @@
       </c>
       <c r="B58" s="28"/>
       <c r="C58" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
@@ -61594,7 +61250,7 @@
       </c>
       <c r="B59" s="28"/>
       <c r="C59" t="s" s="29">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
@@ -62865,7 +62521,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63115,7 +62771,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63365,7 +63021,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63615,7 +63271,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63865,7 +63521,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -64115,7 +63771,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -64131,7 +63787,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -64145,7 +63801,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>

--- a/documents/基本設計書(卒業課題).xlsx
+++ b/documents/基本設計書(卒業課題).xlsx
@@ -25,12 +25,12 @@
     <sheet name="画面レイアウト(カレンダー画面) - 表2" sheetId="18" r:id="rId21"/>
     <sheet name="画面レイアウト(カレンダー画面) - 表2-1" sheetId="19" r:id="rId22"/>
     <sheet name="画面レイアウト(カレンダー画面) - 描画" sheetId="20" r:id="rId23"/>
-    <sheet name="画面レイアウト(予定追加画面) - 表1" sheetId="21" r:id="rId24"/>
-    <sheet name="画面レイアウト(予定追加画面) - 表2-1" sheetId="22" r:id="rId25"/>
-    <sheet name="画面レイアウト(予定追加画面) - 描画" sheetId="23" r:id="rId26"/>
-    <sheet name="画面レイアウト(予定確認画面) - 表1" sheetId="24" r:id="rId27"/>
-    <sheet name="画面レイアウト(予定確認画面) - 表2-1" sheetId="25" r:id="rId28"/>
-    <sheet name="画面レイアウト(予定確認画面) - 描画" sheetId="26" r:id="rId29"/>
+    <sheet name="画面レイアウト(予定確認画面) - 表1" sheetId="21" r:id="rId24"/>
+    <sheet name="画面レイアウト(予定確認画面) - 表2-1" sheetId="22" r:id="rId25"/>
+    <sheet name="画面レイアウト(予定確認画面) - 描画" sheetId="23" r:id="rId26"/>
+    <sheet name="画面レイアウト(予定追加画面) - 表1" sheetId="24" r:id="rId27"/>
+    <sheet name="画面レイアウト(予定追加画面) - 表2-1" sheetId="25" r:id="rId28"/>
+    <sheet name="画面レイアウト(予定追加画面) - 描画" sheetId="26" r:id="rId29"/>
     <sheet name="画面レイアウト(予定編集画面) - 表1" sheetId="27" r:id="rId30"/>
     <sheet name="画面レイアウト(予定編集画面) - 表2-1" sheetId="28" r:id="rId31"/>
     <sheet name="画面レイアウト(予定編集画面) - 描画" sheetId="29" r:id="rId32"/>
@@ -271,19 +271,19 @@
     <t>画面レイアウト(カレンダー画面) - 描画</t>
   </si>
   <si>
-    <t>画面レイアウト(予定追加画面)</t>
+    <t>画面レイアウト(予定確認画面)</t>
   </si>
   <si>
-    <t>画面レイアウト(予定追加画面) - 表1</t>
+    <t>画面レイアウト(予定確認画面) - 表1</t>
   </si>
   <si>
-    <t>予定追加画面</t>
+    <t>予定確認画面</t>
   </si>
   <si>
     <t>✅</t>
   </si>
   <si>
-    <t>画面レイアウト(予定追加画面) - 表2-1</t>
+    <t>画面レイアウト(予定確認画面) - 表2-1</t>
   </si>
   <si>
     <t>〜</t>
@@ -333,22 +333,22 @@
     </r>
   </si>
   <si>
-    <t>画面レイアウト(予定追加画面) - 描画</t>
+    <t>画面レイアウト(予定確認画面) - 描画</t>
   </si>
   <si>
-    <t>画面レイアウト(予定確認画面)</t>
+    <t>画面レイアウト(予定追加画面)</t>
   </si>
   <si>
-    <t>画面レイアウト(予定確認画面) - 表1</t>
+    <t>画面レイアウト(予定追加画面) - 表1</t>
   </si>
   <si>
-    <t>予定確認画面</t>
+    <t>予定追加画面</t>
   </si>
   <si>
-    <t>画面レイアウト(予定確認画面) - 表2-1</t>
+    <t>画面レイアウト(予定追加画面) - 表2-1</t>
   </si>
   <si>
-    <t>画面レイアウト(予定確認画面) - 描画</t>
+    <t>画面レイアウト(予定追加画面) - 描画</t>
   </si>
   <si>
     <t>画面レイアウト(予定編集画面)</t>
@@ -6098,6 +6098,104 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>916618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="パスワードが一致しません。"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2885845" y="6155702"/>
+          <a:ext cx="3009174" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>パスワードが一致しません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6118,7 +6216,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="四角形"/>
+        <xdr:cNvPr id="166" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6163,7 +6261,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="新しいメールアドレス"/>
+        <xdr:cNvPr id="167" name="新しいメールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6251,7 +6349,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="四角形"/>
+        <xdr:cNvPr id="168" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6297,7 +6395,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="パスワード"/>
+        <xdr:cNvPr id="169" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6387,7 +6485,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="●●●●●●"/>
+        <xdr:cNvPr id="170" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6448,7 +6546,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6457,8 +6555,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+              <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
             </a:rPr>
-            <a:t>●●●●●●</a:t>
+            <a:t>yamada@gamil.com</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6480,7 +6579,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="●●●●●●"/>
+        <xdr:cNvPr id="171" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6573,7 +6672,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="マイカレンダー"/>
+        <xdr:cNvPr id="172" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6706,7 +6805,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="四角形"/>
+        <xdr:cNvPr id="173" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6752,7 +6851,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="メールアドレス変更画面"/>
+        <xdr:cNvPr id="174" name="メールアドレス変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6845,7 +6944,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="ログアウト"/>
+        <xdr:cNvPr id="175" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6935,7 +7034,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="カレンダー"/>
+        <xdr:cNvPr id="176" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7025,7 +7124,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="キャンセル"/>
+        <xdr:cNvPr id="177" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7118,7 +7217,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="保存"/>
+        <xdr:cNvPr id="178" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7211,7 +7310,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="四角形"/>
+        <xdr:cNvPr id="179" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7257,7 +7356,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="マイカレンダー"/>
+        <xdr:cNvPr id="180" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7390,7 +7489,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="四角形"/>
+        <xdr:cNvPr id="181" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7436,7 +7535,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="メールアドレス変更完了画面"/>
+        <xdr:cNvPr id="182" name="メールアドレス変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7529,7 +7628,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="変更が完了しました"/>
+        <xdr:cNvPr id="183" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7617,7 +7716,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="184" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7710,7 +7809,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="アカウント情報"/>
+        <xdr:cNvPr id="185" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7785,6 +7884,104 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>916618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="パスワードが一致しません。"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2885845" y="6155702"/>
+          <a:ext cx="3009174" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>パスワードが一致しません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7805,7 +8002,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="四角形"/>
+        <xdr:cNvPr id="188" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7838,25 +8035,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>331650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>153366</xdr:rowOff>
+      <xdr:colOff>266221</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>967738</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>48559</xdr:rowOff>
+      <xdr:colOff>902308</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128661</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="現在のパスワード"/>
+        <xdr:cNvPr id="189" name="現在のパスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2820850" y="3389326"/>
-          <a:ext cx="1880689" cy="579089"/>
+          <a:off x="2755421" y="4837217"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7938,7 +8135,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="四角形"/>
+        <xdr:cNvPr id="190" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7972,24 +8169,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>566978</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>203531</xdr:rowOff>
+      <xdr:colOff>565038</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>677622</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98724</xdr:rowOff>
+      <xdr:colOff>675682</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48559</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="新しいパスワード"/>
+        <xdr:cNvPr id="191" name="新しいパスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3056177" y="4807281"/>
+          <a:off x="3054237" y="3389326"/>
           <a:ext cx="1355246" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8074,7 +8271,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="●●●●●●"/>
+        <xdr:cNvPr id="192" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8167,7 +8364,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="●●●●●●"/>
+        <xdr:cNvPr id="193" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8260,7 +8457,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="マイカレンダー"/>
+        <xdr:cNvPr id="194" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8393,7 +8590,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="四角形"/>
+        <xdr:cNvPr id="195" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8439,7 +8636,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="パスワード変更画面"/>
+        <xdr:cNvPr id="196" name="パスワード変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8532,7 +8729,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="ログアウト"/>
+        <xdr:cNvPr id="197" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8622,7 +8819,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="カレンダー"/>
+        <xdr:cNvPr id="198" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8712,7 +8909,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="キャンセル"/>
+        <xdr:cNvPr id="199" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8805,7 +9002,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="保存"/>
+        <xdr:cNvPr id="200" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8898,7 +9095,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="四角形"/>
+        <xdr:cNvPr id="201" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8944,7 +9141,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="マイカレンダー"/>
+        <xdr:cNvPr id="202" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9077,7 +9274,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="四角形"/>
+        <xdr:cNvPr id="203" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9123,7 +9320,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="パスワード変更完了画面"/>
+        <xdr:cNvPr id="204" name="パスワード変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9216,7 +9413,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="変更が完了しました"/>
+        <xdr:cNvPr id="205" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9304,7 +9501,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="206" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9397,7 +9594,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="アカウント情報"/>
+        <xdr:cNvPr id="207" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9475,25 +9672,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>509216</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>211785</xdr:rowOff>
+      <xdr:colOff>509217</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1194390</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106978</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219242</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="表示"/>
+        <xdr:cNvPr id="208" name="表示"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6732216" y="5499430"/>
-          <a:ext cx="685175" cy="579089"/>
+          <a:off x="6732217" y="4015939"/>
+          <a:ext cx="685174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9565,6 +9762,104 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>916618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="パスワードが一致しません。"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2885845" y="6155702"/>
+          <a:ext cx="3009174" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>パスワードが一致しません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9585,7 +9880,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="四角形"/>
+        <xdr:cNvPr id="211" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9630,7 +9925,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="四角形"/>
+        <xdr:cNvPr id="212" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9676,7 +9971,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="マイカレンダー"/>
+        <xdr:cNvPr id="213" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9809,7 +10104,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="ログアウト"/>
+        <xdr:cNvPr id="214" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9899,7 +10194,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="アカウント情報"/>
+        <xdr:cNvPr id="215" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9989,7 +10284,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="◀︎◀︎ 2022年 ▶︎▶︎…"/>
+        <xdr:cNvPr id="216" name="◀︎◀︎ 2022年 ▶︎▶︎…"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10170,7 +10465,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="◀︎ 12月 ▶︎…"/>
+        <xdr:cNvPr id="217" name="◀︎ 12月 ▶︎…"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10311,7 +10606,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="確認"/>
+        <xdr:cNvPr id="218" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10404,7 +10699,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="削除"/>
+        <xdr:cNvPr id="219" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10497,7 +10792,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="217" name="確認"/>
+        <xdr:cNvPr id="220" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10590,7 +10885,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="削除"/>
+        <xdr:cNvPr id="221" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10683,7 +10978,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="219" name="確認"/>
+        <xdr:cNvPr id="222" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10776,7 +11071,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="削除"/>
+        <xdr:cNvPr id="223" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10869,7 +11164,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="221" name="確認"/>
+        <xdr:cNvPr id="224" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10962,7 +11257,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="削除"/>
+        <xdr:cNvPr id="225" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11055,7 +11350,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="確認"/>
+        <xdr:cNvPr id="226" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11148,7 +11443,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="削除"/>
+        <xdr:cNvPr id="227" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11241,7 +11536,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="予定の追加"/>
+        <xdr:cNvPr id="228" name="予定の追加"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11339,7 +11634,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="四角形"/>
+        <xdr:cNvPr id="230" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11385,7 +11680,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="マイカレンダー"/>
+        <xdr:cNvPr id="231" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11518,7 +11813,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="ログアウト"/>
+        <xdr:cNvPr id="232" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11608,7 +11903,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="230" name="アカウント情報"/>
+        <xdr:cNvPr id="233" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11698,7 +11993,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="追加"/>
+        <xdr:cNvPr id="234" name="編集"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11769,7 +12064,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>追加</a:t>
+            <a:t>編集</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11791,7 +12086,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="キャンセル"/>
+        <xdr:cNvPr id="235" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11862,7 +12157,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>キャンセル</a:t>
+            <a:t>削除</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11884,7 +12179,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="カレンダー"/>
+        <xdr:cNvPr id="236" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11974,7 +12269,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="終日"/>
+        <xdr:cNvPr id="237" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12061,26 +12356,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>435612</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145694</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>64312</xdr:rowOff>
+      <xdr:rowOff>57962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>631187</xdr:colOff>
+      <xdr:colOff>410326</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>111097</xdr:rowOff>
+      <xdr:rowOff>104747</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="予定が未入力です。"/>
+        <xdr:cNvPr id="238" name="カレンダーに戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3610612" y="2540812"/>
-          <a:ext cx="2735576" cy="376986"/>
+          <a:off x="3955694" y="2534462"/>
+          <a:ext cx="2169633" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12089,7 +12384,10 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -12122,11 +12420,7 @@
             <a:tabLst/>
             <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1700" u="none">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:hueOff val="-82419"/>
-                  <a:satOff val="-9513"/>
-                  <a:lumOff val="-16343"/>
-                </a:schemeClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
@@ -12138,11 +12432,7 @@
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1700" u="none">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:hueOff val="-82419"/>
-                  <a:satOff val="-9513"/>
-                  <a:lumOff val="-16343"/>
-                </a:schemeClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
@@ -12150,7 +12440,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>予定が未入力です。</a:t>
+            <a:t>カレンダーに戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12177,7 +12467,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="237" name="四角形"/>
+        <xdr:cNvPr id="240" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12223,7 +12513,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="マイカレンダー"/>
+        <xdr:cNvPr id="241" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12356,7 +12646,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="ログアウト"/>
+        <xdr:cNvPr id="242" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12446,7 +12736,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="アカウント情報"/>
+        <xdr:cNvPr id="243" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12536,7 +12826,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="241" name="編集"/>
+        <xdr:cNvPr id="244" name="追加"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12607,7 +12897,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>編集</a:t>
+            <a:t>追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12629,7 +12919,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="削除"/>
+        <xdr:cNvPr id="245" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12700,7 +12990,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>削除</a:t>
+            <a:t>キャンセル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12722,7 +13012,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="カレンダー"/>
+        <xdr:cNvPr id="246" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12812,7 +13102,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="終日"/>
+        <xdr:cNvPr id="247" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12899,26 +13189,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>145694</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>435612</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>57962</xdr:rowOff>
+      <xdr:rowOff>64312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>410326</xdr:colOff>
+      <xdr:colOff>631187</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104747</xdr:rowOff>
+      <xdr:rowOff>111097</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="カレンダーに戻る"/>
+        <xdr:cNvPr id="248" name="予定が未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3955694" y="2534462"/>
-          <a:ext cx="2169633" cy="376986"/>
+          <a:off x="3610612" y="2540812"/>
+          <a:ext cx="2735576" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12927,10 +13217,7 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -12963,7 +13250,11 @@
             <a:tabLst/>
             <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1700" u="none">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
@@ -12975,7 +13266,11 @@
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1700" u="none">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
@@ -12983,7 +13278,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>カレンダーに戻る</a:t>
+            <a:t>予定が未入力です。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13010,7 +13305,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="247" name="四角形"/>
+        <xdr:cNvPr id="250" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13056,7 +13351,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="マイカレンダー"/>
+        <xdr:cNvPr id="251" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13189,7 +13484,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="249" name="ログアウト"/>
+        <xdr:cNvPr id="252" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13279,7 +13574,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="250" name="アカウント情報"/>
+        <xdr:cNvPr id="253" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13369,7 +13664,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="251" name="保存"/>
+        <xdr:cNvPr id="254" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13462,7 +13757,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="キャンセル"/>
+        <xdr:cNvPr id="255" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13555,7 +13850,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="カレンダー"/>
+        <xdr:cNvPr id="256" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13645,7 +13940,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="終日"/>
+        <xdr:cNvPr id="257" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13745,7 +14040,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="255" name="予定が未入力です。"/>
+        <xdr:cNvPr id="258" name="予定が未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13848,7 +14143,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="257" name="四角形"/>
+        <xdr:cNvPr id="260" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13893,7 +14188,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="258" name="四角形"/>
+        <xdr:cNvPr id="261" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13939,7 +14234,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="マイカレンダー"/>
+        <xdr:cNvPr id="262" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14032,7 +14327,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="260" name="四角形"/>
+        <xdr:cNvPr id="263" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14078,7 +14373,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="予定削除確認画面"/>
+        <xdr:cNvPr id="264" name="予定削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14171,7 +14466,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="ログアウト"/>
+        <xdr:cNvPr id="265" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14261,7 +14556,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="カレンダー"/>
+        <xdr:cNvPr id="266" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14351,7 +14646,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="キャンセル"/>
+        <xdr:cNvPr id="267" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14444,7 +14739,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="削除"/>
+        <xdr:cNvPr id="268" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14537,7 +14832,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="本当に削除しますか？"/>
+        <xdr:cNvPr id="269" name="本当に削除しますか？"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14625,7 +14920,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="アカウント情報"/>
+        <xdr:cNvPr id="270" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14715,7 +15010,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="268" name="四角形"/>
+        <xdr:cNvPr id="271" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14761,7 +15056,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="269" name="マイカレンダー"/>
+        <xdr:cNvPr id="272" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14854,7 +15149,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="四角形"/>
+        <xdr:cNvPr id="273" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14900,7 +15195,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="予定削除完了画面"/>
+        <xdr:cNvPr id="274" name="予定削除完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14993,7 +15288,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="削除が完了しました。"/>
+        <xdr:cNvPr id="275" name="削除が完了しました。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15081,7 +15376,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="273" name="カレンダー画面に戻る"/>
+        <xdr:cNvPr id="276" name="カレンダー画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15174,7 +15469,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="ログアウト"/>
+        <xdr:cNvPr id="277" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15264,7 +15559,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="カレンダー"/>
+        <xdr:cNvPr id="278" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15354,7 +15649,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="アカウント情報"/>
+        <xdr:cNvPr id="279" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24201,12 +24496,12 @@
     <hyperlink ref="D41" location="'画面レイアウト(カレンダー画面) - 表2'!R1C1" tooltip="" display="画面レイアウト(カレンダー画面) - 表2"/>
     <hyperlink ref="D42" location="'画面レイアウト(カレンダー画面) - 表2-1'!R1C1" tooltip="" display="画面レイアウト(カレンダー画面) - 表2-1"/>
     <hyperlink ref="D43" location="'画面レイアウト(カレンダー画面) - 描画'!R1C1" tooltip="" display="画面レイアウト(カレンダー画面) - 描画"/>
-    <hyperlink ref="D45" location="'画面レイアウト(予定追加画面) - 表1'!R1C1" tooltip="" display="画面レイアウト(予定追加画面) - 表1"/>
-    <hyperlink ref="D46" location="'画面レイアウト(予定追加画面) - 表2-1'!R1C1" tooltip="" display="画面レイアウト(予定追加画面) - 表2-1"/>
-    <hyperlink ref="D47" location="'画面レイアウト(予定追加画面) - 描画'!R1C1" tooltip="" display="画面レイアウト(予定追加画面) - 描画"/>
-    <hyperlink ref="D49" location="'画面レイアウト(予定確認画面) - 表1'!R1C1" tooltip="" display="画面レイアウト(予定確認画面) - 表1"/>
-    <hyperlink ref="D50" location="'画面レイアウト(予定確認画面) - 表2-1'!R1C1" tooltip="" display="画面レイアウト(予定確認画面) - 表2-1"/>
-    <hyperlink ref="D51" location="'画面レイアウト(予定確認画面) - 描画'!R1C1" tooltip="" display="画面レイアウト(予定確認画面) - 描画"/>
+    <hyperlink ref="D45" location="'画面レイアウト(予定確認画面) - 表1'!R1C1" tooltip="" display="画面レイアウト(予定確認画面) - 表1"/>
+    <hyperlink ref="D46" location="'画面レイアウト(予定確認画面) - 表2-1'!R1C1" tooltip="" display="画面レイアウト(予定確認画面) - 表2-1"/>
+    <hyperlink ref="D47" location="'画面レイアウト(予定確認画面) - 描画'!R1C1" tooltip="" display="画面レイアウト(予定確認画面) - 描画"/>
+    <hyperlink ref="D49" location="'画面レイアウト(予定追加画面) - 表1'!R1C1" tooltip="" display="画面レイアウト(予定追加画面) - 表1"/>
+    <hyperlink ref="D50" location="'画面レイアウト(予定追加画面) - 表2-1'!R1C1" tooltip="" display="画面レイアウト(予定追加画面) - 表2-1"/>
+    <hyperlink ref="D51" location="'画面レイアウト(予定追加画面) - 描画'!R1C1" tooltip="" display="画面レイアウト(予定追加画面) - 描画"/>
     <hyperlink ref="D53" location="'画面レイアウト(予定編集画面) - 表1'!R1C1" tooltip="" display="画面レイアウト(予定編集画面) - 表1"/>
     <hyperlink ref="D54" location="'画面レイアウト(予定編集画面) - 表2-1'!R1C1" tooltip="" display="画面レイアウト(予定編集画面) - 表2-1"/>
     <hyperlink ref="D55" location="'画面レイアウト(予定編集画面) - 描画'!R1C1" tooltip="" display="画面レイアウト(予定編集画面) - 描画"/>

--- a/documents/基本設計書(卒業課題).xlsx
+++ b/documents/基本設計書(卒業課題).xlsx
@@ -250,7 +250,7 @@
     <t>終日</t>
   </si>
   <si>
-    <t>予定の内容</t>
+    <t>タイトルの内容</t>
   </si>
   <si>
     <t>9:00-12:00</t>
@@ -301,7 +301,7 @@
         <color indexed="8"/>
         <rFont val="ヒラギノ角ゴ ProN W6"/>
       </rPr>
-      <t xml:space="preserve">予定
+      <t xml:space="preserve">タイトル
 </t>
     </r>
     <r>
@@ -310,7 +310,7 @@
         <color indexed="8"/>
         <rFont val="ヒラギノ角ゴ ProN W3"/>
       </rPr>
-      <t>予定の内容</t>
+      <t>タイトルの内容</t>
     </r>
   </si>
   <si>
@@ -1776,10 +1776,7 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -1869,10 +1866,7 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -9672,7 +9666,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>509217</xdr:colOff>
+      <xdr:colOff>509216</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>96084</xdr:rowOff>
     </xdr:from>
@@ -9689,8 +9683,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6732217" y="4015939"/>
-          <a:ext cx="685174" cy="579089"/>
+          <a:off x="6732216" y="4015939"/>
+          <a:ext cx="685175" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -48710,7 +48704,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" ht="80" customHeight="1">
+    <row r="4" ht="8.5" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -48740,7 +48734,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" ht="80" customHeight="1">
+    <row r="6" ht="137.45" customHeight="1">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -54652,7 +54646,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" ht="80" customHeight="1">
+    <row r="4" ht="8.5" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -54682,7 +54676,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" ht="80" customHeight="1">
+    <row r="6" ht="137.45" customHeight="1">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -60594,7 +60588,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" ht="80" customHeight="1">
+    <row r="4" ht="8.5" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -60624,7 +60618,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" ht="80" customHeight="1">
+    <row r="6" ht="137.45" customHeight="1">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>

--- a/documents/基本設計書(卒業課題).xlsx
+++ b/documents/基本設計書(卒業課題).xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -110,6 +110,16 @@
 　「画面レイアウト(アカウント画面)」の登録済みのパスワード表示欄を削除
 ・改版理由
 　セキュリティの観点から削除</t>
+  </si>
+  <si>
+    <t>Rev 1.3</t>
+  </si>
+  <si>
+    <t>・改版箇所
+　「画面レイアウト(アカウント登録操作)」にて「このメールアドレスは既に　
+　　使用されています。」というエラーメッセージを追加
+・改版理由
+　同じメールアドレスが2つ以上登録されることを防ぐため追加</t>
   </si>
   <si>
     <t>IO関連図(アカウント登録)</t>
@@ -1402,7 +1412,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="四角形"/>
+        <xdr:cNvPr id="106" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1447,7 +1457,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="ニックネーム"/>
+        <xdr:cNvPr id="107" name="ニックネーム"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1535,7 +1545,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="四角形"/>
+        <xdr:cNvPr id="108" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1581,7 +1591,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="メールアドレス"/>
+        <xdr:cNvPr id="109" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1671,7 +1681,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="パスワード"/>
+        <xdr:cNvPr id="110" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1761,7 +1771,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="タロウ"/>
+        <xdr:cNvPr id="111" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1851,7 +1861,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="112" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1942,7 +1952,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="マイカレンダー"/>
+        <xdr:cNvPr id="113" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2035,7 +2045,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="四角形"/>
+        <xdr:cNvPr id="114" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2081,7 +2091,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="アカウント画面"/>
+        <xdr:cNvPr id="115" name="アカウント画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2174,7 +2184,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="ニックネーム変更"/>
+        <xdr:cNvPr id="116" name="ニックネーム変更"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2267,7 +2277,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="メールアドレス変更"/>
+        <xdr:cNvPr id="117" name="メールアドレス変更"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2360,7 +2370,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="パスワード変更"/>
+        <xdr:cNvPr id="118" name="パスワード変更"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2453,7 +2463,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="ログアウト"/>
+        <xdr:cNvPr id="119" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2543,7 +2553,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="カレンダー"/>
+        <xdr:cNvPr id="120" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2633,7 +2643,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="カレンダー画面に戻る"/>
+        <xdr:cNvPr id="121" name="カレンダー画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2726,7 +2736,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="アカウントの削除"/>
+        <xdr:cNvPr id="122" name="アカウントの削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2824,7 +2834,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="四角形"/>
+        <xdr:cNvPr id="124" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2869,7 +2879,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="四角形"/>
+        <xdr:cNvPr id="125" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2915,7 +2925,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="マイカレンダー"/>
+        <xdr:cNvPr id="126" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3008,7 +3018,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="四角形"/>
+        <xdr:cNvPr id="127" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3054,7 +3064,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="アカウント削除確認画面"/>
+        <xdr:cNvPr id="128" name="アカウント削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3147,7 +3157,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="ログアウト"/>
+        <xdr:cNvPr id="129" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3237,7 +3247,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="カレンダー"/>
+        <xdr:cNvPr id="130" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3327,7 +3337,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="キャンセル"/>
+        <xdr:cNvPr id="131" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3420,7 +3430,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="削除"/>
+        <xdr:cNvPr id="132" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3513,7 +3523,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="本当に削除しますか？"/>
+        <xdr:cNvPr id="133" name="本当に削除しますか？"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3601,7 +3611,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="アカウント情報"/>
+        <xdr:cNvPr id="134" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3691,7 +3701,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="四角形"/>
+        <xdr:cNvPr id="135" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3737,7 +3747,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="マイカレンダー"/>
+        <xdr:cNvPr id="136" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3830,7 +3840,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="四角形"/>
+        <xdr:cNvPr id="137" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3876,7 +3886,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="アカウント削除確認画面"/>
+        <xdr:cNvPr id="138" name="アカウント削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3969,7 +3979,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="削除が完了しました。"/>
+        <xdr:cNvPr id="139" name="削除が完了しました。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4057,7 +4067,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="140" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4155,7 +4165,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="四角形"/>
+        <xdr:cNvPr id="142" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4200,7 +4210,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="新しいニックネーム"/>
+        <xdr:cNvPr id="143" name="新しいニックネーム"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4288,7 +4298,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="四角形"/>
+        <xdr:cNvPr id="144" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4334,7 +4344,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="パスワード"/>
+        <xdr:cNvPr id="145" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4424,7 +4434,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="タロウ"/>
+        <xdr:cNvPr id="146" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4517,7 +4527,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="●●●●●●"/>
+        <xdr:cNvPr id="147" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4610,7 +4620,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="マイカレンダー"/>
+        <xdr:cNvPr id="148" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4743,7 +4753,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="四角形"/>
+        <xdr:cNvPr id="149" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4789,7 +4799,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="ニックネーム変更画面"/>
+        <xdr:cNvPr id="150" name="ニックネーム変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4882,7 +4892,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="ログアウト"/>
+        <xdr:cNvPr id="151" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4972,7 +4982,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="カレンダー"/>
+        <xdr:cNvPr id="152" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5062,7 +5072,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="キャンセル"/>
+        <xdr:cNvPr id="153" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5155,7 +5165,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="保存"/>
+        <xdr:cNvPr id="154" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5248,7 +5258,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="四角形"/>
+        <xdr:cNvPr id="155" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5294,7 +5304,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="マイカレンダー"/>
+        <xdr:cNvPr id="156" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5427,7 +5437,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="四角形"/>
+        <xdr:cNvPr id="157" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5473,7 +5483,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="ニックネーム変更完了画面"/>
+        <xdr:cNvPr id="158" name="ニックネーム変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5566,7 +5576,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="ログアウト"/>
+        <xdr:cNvPr id="159" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5656,7 +5666,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="カレンダー"/>
+        <xdr:cNvPr id="160" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5746,7 +5756,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="変更が完了しました"/>
+        <xdr:cNvPr id="161" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5834,7 +5844,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="カレンダー画面に戻る"/>
+        <xdr:cNvPr id="162" name="カレンダー画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5927,7 +5937,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="アカウント情報"/>
+        <xdr:cNvPr id="163" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6017,7 +6027,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="アカウント情報"/>
+        <xdr:cNvPr id="164" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6107,7 +6117,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="パスワードが一致しません。"/>
+        <xdr:cNvPr id="165" name="パスワードが一致しません。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6210,7 +6220,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="四角形"/>
+        <xdr:cNvPr id="167" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6255,7 +6265,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="新しいメールアドレス"/>
+        <xdr:cNvPr id="168" name="新しいメールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6343,7 +6353,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="四角形"/>
+        <xdr:cNvPr id="169" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6389,7 +6399,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="パスワード"/>
+        <xdr:cNvPr id="170" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6479,7 +6489,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="171" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6573,7 +6583,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="●●●●●●"/>
+        <xdr:cNvPr id="172" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6666,7 +6676,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="マイカレンダー"/>
+        <xdr:cNvPr id="173" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6799,7 +6809,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="四角形"/>
+        <xdr:cNvPr id="174" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6845,7 +6855,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="メールアドレス変更画面"/>
+        <xdr:cNvPr id="175" name="メールアドレス変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6938,7 +6948,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="ログアウト"/>
+        <xdr:cNvPr id="176" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7028,7 +7038,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="カレンダー"/>
+        <xdr:cNvPr id="177" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7118,7 +7128,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="キャンセル"/>
+        <xdr:cNvPr id="178" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7211,7 +7221,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="保存"/>
+        <xdr:cNvPr id="179" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7304,7 +7314,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="四角形"/>
+        <xdr:cNvPr id="180" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7350,7 +7360,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="マイカレンダー"/>
+        <xdr:cNvPr id="181" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7483,7 +7493,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="四角形"/>
+        <xdr:cNvPr id="182" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7529,7 +7539,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="メールアドレス変更完了画面"/>
+        <xdr:cNvPr id="183" name="メールアドレス変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7622,7 +7632,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="変更が完了しました"/>
+        <xdr:cNvPr id="184" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7710,7 +7720,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="185" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7803,7 +7813,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="アカウント情報"/>
+        <xdr:cNvPr id="186" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7893,7 +7903,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="パスワードが一致しません。"/>
+        <xdr:cNvPr id="187" name="パスワードが一致しません。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7996,7 +8006,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="四角形"/>
+        <xdr:cNvPr id="189" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8041,7 +8051,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="現在のパスワード"/>
+        <xdr:cNvPr id="190" name="現在のパスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8129,7 +8139,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="四角形"/>
+        <xdr:cNvPr id="191" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8175,7 +8185,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="新しいパスワード"/>
+        <xdr:cNvPr id="192" name="新しいパスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8265,7 +8275,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="●●●●●●"/>
+        <xdr:cNvPr id="193" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8358,7 +8368,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="●●●●●●"/>
+        <xdr:cNvPr id="194" name="●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8451,7 +8461,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="マイカレンダー"/>
+        <xdr:cNvPr id="195" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8584,7 +8594,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="四角形"/>
+        <xdr:cNvPr id="196" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8630,7 +8640,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="パスワード変更画面"/>
+        <xdr:cNvPr id="197" name="パスワード変更画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8723,7 +8733,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="ログアウト"/>
+        <xdr:cNvPr id="198" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8813,7 +8823,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="カレンダー"/>
+        <xdr:cNvPr id="199" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8903,7 +8913,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="キャンセル"/>
+        <xdr:cNvPr id="200" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8996,7 +9006,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="保存"/>
+        <xdr:cNvPr id="201" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9089,7 +9099,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="四角形"/>
+        <xdr:cNvPr id="202" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9135,7 +9145,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="マイカレンダー"/>
+        <xdr:cNvPr id="203" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9268,7 +9278,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="四角形"/>
+        <xdr:cNvPr id="204" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9314,7 +9324,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="パスワード変更完了画面"/>
+        <xdr:cNvPr id="205" name="パスワード変更完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9407,7 +9417,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="変更が完了しました"/>
+        <xdr:cNvPr id="206" name="変更が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9495,7 +9505,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="207" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9588,7 +9598,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="アカウント情報"/>
+        <xdr:cNvPr id="208" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9678,7 +9688,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="表示"/>
+        <xdr:cNvPr id="209" name="表示"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9771,7 +9781,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="パスワードが一致しません。"/>
+        <xdr:cNvPr id="210" name="パスワードが一致しません。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9874,7 +9884,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="四角形"/>
+        <xdr:cNvPr id="212" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9919,7 +9929,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="四角形"/>
+        <xdr:cNvPr id="213" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9965,7 +9975,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="マイカレンダー"/>
+        <xdr:cNvPr id="214" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10098,7 +10108,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="ログアウト"/>
+        <xdr:cNvPr id="215" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10188,7 +10198,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="アカウント情報"/>
+        <xdr:cNvPr id="216" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10278,7 +10288,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="◀︎◀︎ 2022年 ▶︎▶︎…"/>
+        <xdr:cNvPr id="217" name="◀︎◀︎ 2022年 ▶︎▶︎…"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10459,7 +10469,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="217" name="◀︎ 12月 ▶︎…"/>
+        <xdr:cNvPr id="218" name="◀︎ 12月 ▶︎…"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10600,7 +10610,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="確認"/>
+        <xdr:cNvPr id="219" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10693,7 +10703,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="219" name="削除"/>
+        <xdr:cNvPr id="220" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10786,7 +10796,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="確認"/>
+        <xdr:cNvPr id="221" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10879,7 +10889,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="221" name="削除"/>
+        <xdr:cNvPr id="222" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10972,7 +10982,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="確認"/>
+        <xdr:cNvPr id="223" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11065,7 +11075,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="削除"/>
+        <xdr:cNvPr id="224" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11158,7 +11168,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="確認"/>
+        <xdr:cNvPr id="225" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11251,7 +11261,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="削除"/>
+        <xdr:cNvPr id="226" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11344,7 +11354,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="226" name="確認"/>
+        <xdr:cNvPr id="227" name="確認"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11437,7 +11447,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="削除"/>
+        <xdr:cNvPr id="228" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11530,7 +11540,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="予定の追加"/>
+        <xdr:cNvPr id="229" name="予定の追加"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11628,7 +11638,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="230" name="四角形"/>
+        <xdr:cNvPr id="231" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11674,7 +11684,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="マイカレンダー"/>
+        <xdr:cNvPr id="232" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11807,7 +11817,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="ログアウト"/>
+        <xdr:cNvPr id="233" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11897,7 +11907,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="アカウント情報"/>
+        <xdr:cNvPr id="234" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11987,7 +11997,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="編集"/>
+        <xdr:cNvPr id="235" name="編集"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12080,7 +12090,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="削除"/>
+        <xdr:cNvPr id="236" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12173,7 +12183,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="236" name="カレンダー"/>
+        <xdr:cNvPr id="237" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12263,7 +12273,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="237" name="終日"/>
+        <xdr:cNvPr id="238" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12363,7 +12373,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="カレンダーに戻る"/>
+        <xdr:cNvPr id="239" name="カレンダーに戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12461,7 +12471,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="四角形"/>
+        <xdr:cNvPr id="241" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12507,7 +12517,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="241" name="マイカレンダー"/>
+        <xdr:cNvPr id="242" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12640,7 +12650,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="ログアウト"/>
+        <xdr:cNvPr id="243" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12730,7 +12740,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="アカウント情報"/>
+        <xdr:cNvPr id="244" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12820,7 +12830,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="追加"/>
+        <xdr:cNvPr id="245" name="追加"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12913,7 +12923,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="キャンセル"/>
+        <xdr:cNvPr id="246" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13006,7 +13016,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="246" name="カレンダー"/>
+        <xdr:cNvPr id="247" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13096,7 +13106,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="247" name="終日"/>
+        <xdr:cNvPr id="248" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13196,7 +13206,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="予定が未入力です。"/>
+        <xdr:cNvPr id="249" name="予定が未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13299,7 +13309,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="250" name="四角形"/>
+        <xdr:cNvPr id="251" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13345,7 +13355,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="251" name="マイカレンダー"/>
+        <xdr:cNvPr id="252" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13478,7 +13488,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="ログアウト"/>
+        <xdr:cNvPr id="253" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13568,7 +13578,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="アカウント情報"/>
+        <xdr:cNvPr id="254" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13658,7 +13668,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="保存"/>
+        <xdr:cNvPr id="255" name="保存"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13751,7 +13761,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="255" name="キャンセル"/>
+        <xdr:cNvPr id="256" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13844,7 +13854,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="256" name="カレンダー"/>
+        <xdr:cNvPr id="257" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13934,7 +13944,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="257" name="終日"/>
+        <xdr:cNvPr id="258" name="終日"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14034,7 +14044,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="258" name="予定が未入力です。"/>
+        <xdr:cNvPr id="259" name="予定が未入力です。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14137,7 +14147,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="260" name="四角形"/>
+        <xdr:cNvPr id="261" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14182,7 +14192,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="四角形"/>
+        <xdr:cNvPr id="262" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14228,7 +14238,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="マイカレンダー"/>
+        <xdr:cNvPr id="263" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14321,7 +14331,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="四角形"/>
+        <xdr:cNvPr id="264" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14367,7 +14377,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="予定削除確認画面"/>
+        <xdr:cNvPr id="265" name="予定削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14460,7 +14470,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="ログアウト"/>
+        <xdr:cNvPr id="266" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14550,7 +14560,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="カレンダー"/>
+        <xdr:cNvPr id="267" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14640,7 +14650,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="キャンセル"/>
+        <xdr:cNvPr id="268" name="キャンセル"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14733,7 +14743,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="268" name="削除"/>
+        <xdr:cNvPr id="269" name="削除"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14826,7 +14836,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="269" name="本当に削除しますか？"/>
+        <xdr:cNvPr id="270" name="本当に削除しますか？"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14914,7 +14924,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="アカウント情報"/>
+        <xdr:cNvPr id="271" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15004,7 +15014,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="四角形"/>
+        <xdr:cNvPr id="272" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15050,7 +15060,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="マイカレンダー"/>
+        <xdr:cNvPr id="273" name="マイカレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15143,7 +15153,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="273" name="四角形"/>
+        <xdr:cNvPr id="274" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15189,7 +15199,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="予定削除完了画面"/>
+        <xdr:cNvPr id="275" name="予定削除完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15282,7 +15292,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="削除が完了しました。"/>
+        <xdr:cNvPr id="276" name="削除が完了しました。"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15370,7 +15380,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="カレンダー画面に戻る"/>
+        <xdr:cNvPr id="277" name="カレンダー画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15463,7 +15473,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="ログアウト"/>
+        <xdr:cNvPr id="278" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15553,7 +15563,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="カレンダー"/>
+        <xdr:cNvPr id="279" name="カレンダー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15643,7 +15653,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="アカウント情報"/>
+        <xdr:cNvPr id="280" name="アカウント情報"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20245,15 +20255,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>993489</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>110557</xdr:rowOff>
+      <xdr:colOff>920562</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>384977</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>5750</xdr:rowOff>
+      <xdr:colOff>312050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154846</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -20262,7 +20272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238089" y="6082097"/>
+          <a:off x="2165162" y="6687123"/>
           <a:ext cx="1880689" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20615,15 +20625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1002903</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83202</xdr:rowOff>
+      <xdr:colOff>929976</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>278277</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>206361</xdr:rowOff>
+      <xdr:colOff>205349</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127492</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -20632,8 +20642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4736703" y="6054742"/>
-          <a:ext cx="3009175" cy="579090"/>
+          <a:off x="4663776" y="6659768"/>
+          <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21399,15 +21409,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>454356</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65863</xdr:rowOff>
+      <xdr:colOff>381429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>214959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1139530</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>189022</xdr:rowOff>
+      <xdr:colOff>1066602</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110153</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -21416,8 +21426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7921956" y="6037403"/>
-          <a:ext cx="685175" cy="579090"/>
+          <a:off x="7849029" y="6642429"/>
+          <a:ext cx="685174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21590,15 +21600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>984613</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>226389</xdr:rowOff>
+      <xdr:colOff>911686</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>683953</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>174283</xdr:rowOff>
+      <xdr:colOff>611025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95414</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -21607,8 +21617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4718413" y="6653859"/>
-          <a:ext cx="3433141" cy="403825"/>
+          <a:off x="4645486" y="7258886"/>
+          <a:ext cx="3433140" cy="403824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21688,15 +21698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>984613</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>205742</xdr:rowOff>
+      <xdr:colOff>911686</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>126873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>683953</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>153635</xdr:rowOff>
+      <xdr:colOff>611025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>74767</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -21705,8 +21715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4718413" y="7089142"/>
-          <a:ext cx="3433141" cy="403824"/>
+          <a:off x="4645486" y="7694168"/>
+          <a:ext cx="3433140" cy="403825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22982,6 +22992,104 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>996553</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695893</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="このメールアドレスは既に使用されています。"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4730353" y="6132847"/>
+          <a:ext cx="3433141" cy="403825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>このメールアドレスは既に使用されています。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24083,7 +24191,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -24094,12 +24202,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -24110,12 +24218,12 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -24126,12 +24234,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -24142,12 +24250,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -24158,12 +24266,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -24174,12 +24282,12 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -24190,12 +24298,12 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -24206,12 +24314,12 @@
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -24222,12 +24330,12 @@
         <v>5</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -24238,12 +24346,12 @@
         <v>5</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -24254,12 +24362,12 @@
         <v>5</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -24270,12 +24378,12 @@
         <v>5</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -24286,12 +24394,12 @@
         <v>5</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -24302,12 +24410,12 @@
         <v>5</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -24318,39 +24426,39 @@
         <v>5</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="4"/>
       <c r="C41" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="4"/>
       <c r="C42" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="4"/>
       <c r="C43" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -24361,30 +24469,30 @@
         <v>5</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="4"/>
       <c r="C46" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="4"/>
       <c r="C47" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -24395,30 +24503,30 @@
         <v>5</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="4"/>
       <c r="C50" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="4"/>
       <c r="C51" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -24429,30 +24537,30 @@
         <v>5</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="4"/>
       <c r="C54" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="4"/>
       <c r="C55" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -24463,7 +24571,7 @@
         <v>5</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -24521,7 +24629,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -24537,7 +24645,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -24551,7 +24659,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -25015,7 +25123,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -25031,7 +25139,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -25045,7 +25153,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -25565,7 +25673,7 @@
     </row>
     <row r="55" ht="18.95" customHeight="1">
       <c r="A55" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -25581,7 +25689,7 @@
       </c>
       <c r="B56" s="28"/>
       <c r="C56" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
@@ -25595,7 +25703,7 @@
       </c>
       <c r="B57" s="28"/>
       <c r="C57" t="s" s="29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
@@ -26115,7 +26223,7 @@
     </row>
     <row r="109" ht="18.95" customHeight="1">
       <c r="A109" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -26131,7 +26239,7 @@
       </c>
       <c r="B110" s="28"/>
       <c r="C110" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
@@ -26145,7 +26253,7 @@
       </c>
       <c r="B111" s="28"/>
       <c r="C111" t="s" s="29">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
@@ -27053,7 +27161,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -27069,7 +27177,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -27083,7 +27191,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -28907,7 +29015,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -28923,7 +29031,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -28937,7 +29045,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -29477,7 +29585,7 @@
     </row>
     <row r="57" ht="18.95" customHeight="1">
       <c r="A57" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -29493,7 +29601,7 @@
       </c>
       <c r="B58" s="28"/>
       <c r="C58" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
@@ -29507,7 +29615,7 @@
       </c>
       <c r="B59" s="28"/>
       <c r="C59" t="s" s="29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
@@ -30778,7 +30886,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -30794,7 +30902,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -30808,7 +30916,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -31378,7 +31486,7 @@
     </row>
     <row r="60" ht="18.95" customHeight="1">
       <c r="A60" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -31394,7 +31502,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="C61" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -31408,7 +31516,7 @@
       </c>
       <c r="B62" s="28"/>
       <c r="C62" t="s" s="29">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -32649,7 +32757,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -32665,7 +32773,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -32679,7 +32787,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -33249,7 +33357,7 @@
     </row>
     <row r="60" ht="18.95" customHeight="1">
       <c r="A60" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -33265,7 +33373,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="C61" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -33279,7 +33387,7 @@
       </c>
       <c r="B62" s="28"/>
       <c r="C62" t="s" s="29">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -34520,7 +34628,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -34536,7 +34644,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -34550,7 +34658,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -35120,7 +35228,7 @@
     </row>
     <row r="60" ht="18.95" customHeight="1">
       <c r="A60" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -35136,7 +35244,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="C61" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -35150,7 +35258,7 @@
       </c>
       <c r="B62" s="28"/>
       <c r="C62" t="s" s="29">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -36393,7 +36501,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -36430,7 +36538,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -36462,7 +36570,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -42178,31 +42286,31 @@
   <sheetData>
     <row r="1" ht="27.95" customHeight="1">
       <c r="A1" t="s" s="29">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" t="s" s="29">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" t="s" s="29">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" t="s" s="29">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" t="s" s="29">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" s="28"/>
       <c r="K1" t="s" s="29">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" t="s" s="29">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N1" s="28"/>
     </row>
@@ -42432,11 +42540,11 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="55">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="56">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -42450,11 +42558,11 @@
     </row>
     <row r="3" ht="38.95" customHeight="1">
       <c r="A3" t="s" s="55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="56">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -42468,11 +42576,11 @@
     </row>
     <row r="4" ht="38.95" customHeight="1">
       <c r="A4" t="s" s="55">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" t="s" s="56">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -42486,11 +42594,11 @@
     </row>
     <row r="5" ht="38.95" customHeight="1">
       <c r="A5" t="s" s="55">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" t="s" s="56">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -42504,11 +42612,11 @@
     </row>
     <row r="6" ht="38.95" customHeight="1">
       <c r="A6" t="s" s="55">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" t="s" s="56">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -42544,7 +42652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -42806,8 +42914,23 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
+    <row r="25" ht="105.45" customHeight="1">
+      <c r="A25" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17">
+        <v>44907</v>
+      </c>
+      <c r="C25" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A7:B9"/>
     <mergeCell ref="C7:F9"/>
     <mergeCell ref="B12:F16"/>
@@ -42815,6 +42938,7 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -42865,7 +42989,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -42902,7 +43026,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -42934,7 +43058,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -43347,7 +43471,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" t="s" s="58">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z17" s="59"/>
     </row>
@@ -48659,7 +48783,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s" s="62">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="61">
@@ -48672,7 +48796,7 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="63">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -48681,7 +48805,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" t="s" s="63">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -48690,7 +48814,7 @@
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" t="s" s="65">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -48720,7 +48844,7 @@
     </row>
     <row r="5" ht="80" customHeight="1">
       <c r="A5" t="s" s="65">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -48807,7 +48931,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -48844,7 +48968,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -48876,7 +49000,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -49289,7 +49413,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" t="s" s="58">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z17" s="59"/>
     </row>
@@ -54601,7 +54725,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s" s="62">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="61">
@@ -54614,7 +54738,7 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="63">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -54623,7 +54747,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" t="s" s="63">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -54632,7 +54756,7 @@
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" t="s" s="65">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -54662,7 +54786,7 @@
     </row>
     <row r="5" ht="80" customHeight="1">
       <c r="A5" t="s" s="65">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -54749,7 +54873,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -54786,7 +54910,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -54818,7 +54942,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" t="s" s="29">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -55231,7 +55355,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" t="s" s="58">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z17" s="59"/>
     </row>
@@ -60543,7 +60667,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s" s="62">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="61">
@@ -60556,7 +60680,7 @@
     </row>
     <row r="2" ht="38.95" customHeight="1">
       <c r="A2" t="s" s="63">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -60565,7 +60689,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" t="s" s="63">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -60574,7 +60698,7 @@
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" t="s" s="65">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -60604,7 +60728,7 @@
     </row>
     <row r="5" ht="80" customHeight="1">
       <c r="A5" t="s" s="65">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -60689,7 +60813,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -60939,7 +61063,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -60955,7 +61079,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -60969,7 +61093,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -61509,7 +61633,7 @@
     </row>
     <row r="57" ht="18.95" customHeight="1">
       <c r="A57" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -61525,7 +61649,7 @@
       </c>
       <c r="B58" s="28"/>
       <c r="C58" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
@@ -61539,7 +61663,7 @@
       </c>
       <c r="B59" s="28"/>
       <c r="C59" t="s" s="29">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
@@ -62810,7 +62934,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63060,7 +63184,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63310,7 +63434,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63560,7 +63684,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -63810,7 +63934,7 @@
   <sheetData>
     <row r="1" ht="18.3" customHeight="1">
       <c r="A1" t="s" s="19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -64060,7 +64184,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -64076,7 +64200,7 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" t="s" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -64090,7 +64214,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="29">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
